--- a/biology/Médecine/Cancer_provoqué_par_le_nickel/Cancer_provoqué_par_le_nickel.xlsx
+++ b/biology/Médecine/Cancer_provoqué_par_le_nickel/Cancer_provoqué_par_le_nickel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cancer_provoqu%C3%A9_par_le_nickel</t>
+          <t>Cancer_provoqué_par_le_nickel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un cancer provoqué par le nickel peut être reconnue comme maladie professionnelle dans certains pays, sous conditions.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage juridique que médical. Pour la description clinique de la maladie se reporter à l'article suivant :
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cancer_provoqu%C3%A9_par_le_nickel</t>
+          <t>Cancer_provoqué_par_le_nickel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Données médicales
-Le Nickel métal est inscrit sur la liste des cancérogènes possibles pour l'homme du groupe 2B du CIRC
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cancer_provoqué_par_le_nickel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cancer_provoqu%C3%A9_par_le_nickel</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Nickel métal est inscrit sur la liste des cancérogènes possibles pour l'homme du groupe 2B du CIRC
 Les composés du Nickel sont inscrits sur la liste des cancérogènes certains pour l'homme du groupe 1 du CIRC
 </t>
         </is>
